--- a/Other files/Answers.xlsx
+++ b/Other files/Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TheQBCarousel\Other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A6223-779A-42AC-A771-FE155CBCC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C0FDE-1F94-41C9-9E8E-A787CE896B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{918F82FC-C1AA-4685-9411-E23F388156EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{918F82FC-C1AA-4685-9411-E23F388156EE}"/>
   </bookViews>
   <sheets>
     <sheet name="AnswerTypes" sheetId="2" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,7 +599,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,14 +984,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B1E718-52E1-4932-8EDB-D5AEEF1FD24A}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="8.88671875" style="4"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -1372,8 +1368,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2257,7 +2253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2B399-6730-4464-A979-7CE5B7D86A56}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
